--- a/backend/DataBase/shops.xlsx
+++ b/backend/DataBase/shops.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarav\OneDrive\Desktop\New Fair price\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasantha Raj\Desktop\FairPriceApp\backend\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AD625B-D9D4-4161-B476-EF490E5BE68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB9B128-E29B-4EA5-9EB8-7351E4BE3C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,15 +521,15 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +564,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -599,7 +599,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -634,7 +634,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -669,7 +669,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -704,7 +704,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>105</v>
       </c>
